--- a/Pedidos/Python/Testfusion.xlsx
+++ b/Pedidos/Python/Testfusion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>Idioma</t>
   </si>
@@ -25,46 +25,40 @@
     <t>Contrasena</t>
   </si>
   <si>
+    <t>ID_Cliente</t>
+  </si>
+  <si>
+    <t>ID_Direccion</t>
+  </si>
+  <si>
     <t>Contenedor</t>
   </si>
   <si>
     <t>Incoterms</t>
   </si>
   <si>
-    <t>IdCliente</t>
-  </si>
-  <si>
-    <t>IdDireccion</t>
-  </si>
-  <si>
-    <t>IdPuerto</t>
-  </si>
-  <si>
-    <t>CapacidadDescarga</t>
-  </si>
-  <si>
-    <t>CapacidadDisponible</t>
+    <t>OpCompra</t>
+  </si>
+  <si>
+    <t>Presentacion</t>
   </si>
   <si>
     <t>Producto</t>
   </si>
   <si>
-    <t>SoportaPeso</t>
-  </si>
-  <si>
-    <t>PesoProducto</t>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Presentacion2</t>
   </si>
   <si>
     <t>Producto2</t>
   </si>
   <si>
-    <t>SoportaPeso2</t>
-  </si>
-  <si>
-    <t>PesoProducto2</t>
-  </si>
-  <si>
-    <t>Iterar</t>
+    <t>Cantidad2</t>
+  </si>
+  <si>
+    <t>OpCompra2</t>
   </si>
   <si>
     <t>automated.test@grupokaizen.net</t>
@@ -434,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,152 +480,757 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>312</v>
+      </c>
+      <c r="K2">
         <v>18</v>
       </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>7</v>
       </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>55000</v>
-      </c>
-      <c r="J2">
-        <v>45000</v>
-      </c>
-      <c r="K2">
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
         <v>580</v>
       </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1840</v>
-      </c>
-      <c r="N2">
-        <v>312</v>
-      </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>2100</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>55000</v>
-      </c>
-      <c r="J3">
-        <v>45000</v>
-      </c>
       <c r="K3">
-        <v>582</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1840</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>580</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>580</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>582</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>582</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>582</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>572</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>572</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>572</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>55000</v>
-      </c>
-      <c r="J4">
-        <v>45000</v>
-      </c>
-      <c r="K4">
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>580</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>580</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>580</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>582</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>580</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
         <v>572</v>
       </c>
-      <c r="L4" t="b">
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>582</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>580</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>1840</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>582</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>582</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>582</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>572</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
